--- a/project/scrum/记·得 小组项目/用户故事.xlsx
+++ b/project/scrum/记·得 小组项目/用户故事.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Junior\software\software-engineering\project\scrum\记·得 小组项目\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C508971B-1C00-4100-BF8C-A91E41BB8195}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="6730" yWindow="820" windowWidth="17590" windowHeight="7460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,26 +24,276 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="43">
+  <si>
+    <t>引用编号</t>
+  </si>
+  <si>
+    <t>版本</t>
+  </si>
+  <si>
+    <t>冲刺号</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>标题</t>
+  </si>
+  <si>
+    <t>故事</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>进度</t>
+  </si>
+  <si>
+    <t>初始估计（h）</t>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>如何演示</t>
+  </si>
+  <si>
+    <t>商业价值</t>
+  </si>
+  <si>
+    <t>理想时间（h）</t>
+  </si>
+  <si>
+    <t>调整因子</t>
+  </si>
+  <si>
+    <t>复杂度</t>
+  </si>
+  <si>
+    <t>信息度</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>user story</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initial Feature</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Done</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲子大事记</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲子成长记录</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲子学业记录</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱人纪念日</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>恋爱清单</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲子日记</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>恋爱日记</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>云相册存储亲子照片</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为家长，我希望将孩子的照片分类保存，这样可以记录不同场景下孩子的样子，以便于今后和孩子一起回忆经历的各种美好瞬间。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为家长，我希望可以在记录孩子成长的每个转折点时，自动获取当时的时间，以便于更加明确地看到孩子从稚嫩到成熟。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为家长，我希望所写的关于孩子的日记中可以插入图片，还可以有精确的时间，以便于可以今后可以清楚的知道记录的场景，内容和时间。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为家长，我希望可以在孩子成长的各个阶段记录孩子的身高体重，并且能够有一个清晰的曲线展示孩子的成长变化，以便于能够更加清晰地看到孩子的成长。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为家长，我希望可以在孩子成长的各个阶段记录孩子的学业成就，并且能够有一个清晰的曲线展示孩子学业成绩的变化，以便于能够更加清晰地看到孩子的在各个阶段进步与否。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲子语音记事</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱人语音记事</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>云相册存储恋爱照片</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为男（女）朋友，我希望将和对方在一起的所有甜蜜时刻的照片分类保存，这样可以记录不同场景下对方的样子，以便于和对方一起回忆经历的各种美好瞬间。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为男（女）朋友，我希望能够记录和对方有关的有关的语音信息，这样可以实时记录和对方发生的小事情，可以是小争吵也可以是小惊喜，也可以把想对对方说的话存储下来，日后给对方听。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为家长，我希望能够记录孩子或者和孩子有关的语音信息，这样可以实时记录和孩子经历的事件，以便于日后回忆，也可以把相对孩子说的话存储下来，等他长大了让他听，从而知道爸爸妈妈有多爱爱他。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为男（女）朋友，我希望所写的关于恋爱的日记中可以插入图片，还可以有精确的时间，以便于可以今后可以清楚的知道记录的场景，内容和时间。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为男（女）朋友，我希望可以把与对方相恋的每一个重要的日子记下来，自动获取当时的时间，并可以设置日期提醒，这样在今后的每一年都可以为对方准备小惊喜。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为男（女）朋友，我希望我们的相爱会很有仪式感，也希望我们的恋爱充满趣味，以便于我们的感情一天天升温，让我们的恋爱充满新鲜与欣喜。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="180" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="186" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ #,##0.00"/>
+    <numFmt numFmtId="187" formatCode="d/mm/yyyy;@"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -45,15 +301,210 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="4" borderId="8">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" applyNumberFormat="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="2" fillId="6" borderId="8" applyNumberFormat="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="10">
+    <cellStyle name="Background" xfId="2" xr:uid="{FEA5F6D1-9B23-456E-B44D-095836109663}"/>
+    <cellStyle name="DateCells" xfId="3" xr:uid="{E76DF461-F36E-49CB-819F-2F3762FEAC8A}"/>
+    <cellStyle name="DayNames" xfId="4" xr:uid="{55BC617E-8974-44AF-B682-C5FC7B2D8231}"/>
+    <cellStyle name="MonthHeader" xfId="5" xr:uid="{B71EADB1-D6BA-49C5-967D-EDF4A15A79F6}"/>
+    <cellStyle name="Normal 2" xfId="6" xr:uid="{E2D16828-303A-4345-9F73-8143E3D1538B}"/>
+    <cellStyle name="Normal 3" xfId="7" xr:uid="{ECEBE2B7-F08F-4331-8BF4-DFB5FCAD461B}"/>
+    <cellStyle name="百分比 2" xfId="8" xr:uid="{533B6033-E2BD-49EA-861D-76663696A93E}"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{8750DA97-3C00-4872-A743-EC1BADBD0ADA}"/>
+    <cellStyle name="货币 2" xfId="9" xr:uid="{88ADD075-6C73-426E-B06F-78A5C4D98E98}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +781,851 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.08203125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="4.75" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="21.75" style="6" customWidth="1"/>
+    <col min="6" max="6" width="42.9140625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="6" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:17" ht="73" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="45.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="56" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="42" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="42" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="56" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="56" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="56" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="56" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="42" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="56" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="42" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>1</v>
+      </c>
+      <c r="B19" s="6">
+        <v>2</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>2</v>
+      </c>
+      <c r="B20" s="6">
+        <v>2</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>3</v>
+      </c>
+      <c r="B21" s="6">
+        <v>2</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>4</v>
+      </c>
+      <c r="B22" s="6">
+        <v>2</v>
+      </c>
+      <c r="C22" s="6">
+        <v>2</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>5</v>
+      </c>
+      <c r="B23" s="6">
+        <v>2</v>
+      </c>
+      <c r="C23" s="6">
+        <v>2</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>6</v>
+      </c>
+      <c r="B24" s="6">
+        <v>2</v>
+      </c>
+      <c r="C24" s="6">
+        <v>2</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>7</v>
+      </c>
+      <c r="B25" s="6">
+        <v>2</v>
+      </c>
+      <c r="C25" s="6">
+        <v>2</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>8</v>
+      </c>
+      <c r="B26" s="6">
+        <v>2</v>
+      </c>
+      <c r="C26" s="6">
+        <v>2</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>9</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2</v>
+      </c>
+      <c r="C27" s="6">
+        <v>2</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>10</v>
+      </c>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6">
+        <v>2</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>11</v>
+      </c>
+      <c r="B29" s="6">
+        <v>2</v>
+      </c>
+      <c r="C29" s="6">
+        <v>2</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>12</v>
+      </c>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6">
+        <v>2</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>13</v>
+      </c>
+      <c r="B31" s="6">
+        <v>2</v>
+      </c>
+      <c r="C31" s="6">
+        <v>2</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
+        <v>14</v>
+      </c>
+      <c r="B32" s="6">
+        <v>2</v>
+      </c>
+      <c r="C32" s="6">
+        <v>2</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>15</v>
+      </c>
+      <c r="B33" s="6">
+        <v>2</v>
+      </c>
+      <c r="C33" s="6">
+        <v>2</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>1</v>
+      </c>
+      <c r="B35" s="6">
+        <v>3</v>
+      </c>
+      <c r="C35" s="6">
+        <v>3</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="6">
+        <v>2</v>
+      </c>
+      <c r="B36" s="6">
+        <v>3</v>
+      </c>
+      <c r="C36" s="6">
+        <v>3</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="6">
+        <v>3</v>
+      </c>
+      <c r="B37" s="6">
+        <v>3</v>
+      </c>
+      <c r="C37" s="6">
+        <v>3</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="6">
+        <v>4</v>
+      </c>
+      <c r="B38" s="6">
+        <v>3</v>
+      </c>
+      <c r="C38" s="6">
+        <v>3</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="6">
+        <v>5</v>
+      </c>
+      <c r="B39" s="6">
+        <v>3</v>
+      </c>
+      <c r="C39" s="6">
+        <v>3</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/project/scrum/记·得 小组项目/用户故事.xlsx
+++ b/project/scrum/记·得 小组项目/用户故事.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Junior\software\software-engineering\project\scrum\记·得 小组项目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C508971B-1C00-4100-BF8C-A91E41BB8195}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7AEC3A-3E8A-41E7-A3F5-03C82C1B6AF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6730" yWindow="820" windowWidth="17590" windowHeight="7460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="59">
   <si>
     <t>引用编号</t>
   </si>
@@ -122,14 +122,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>云相册存储亲子照片</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为家长，我希望将孩子的照片分类保存，这样可以记录不同场景下孩子的样子，以便于今后和孩子一起回忆经历的各种美好瞬间。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>作为家长，我希望可以在记录孩子成长的每个转折点时，自动获取当时的时间，以便于更加明确地看到孩子从稚嫩到成熟。</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -146,30 +138,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>亲子语音记事</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱人语音记事</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>云相册存储恋爱照片</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为男（女）朋友，我希望将和对方在一起的所有甜蜜时刻的照片分类保存，这样可以记录不同场景下对方的样子，以便于和对方一起回忆经历的各种美好瞬间。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为男（女）朋友，我希望能够记录和对方有关的有关的语音信息，这样可以实时记录和对方发生的小事情，可以是小争吵也可以是小惊喜，也可以把想对对方说的话存储下来，日后给对方听。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>作为家长，我希望能够记录孩子或者和孩子有关的语音信息，这样可以实时记录和孩子经历的事件，以便于日后回忆，也可以把相对孩子说的话存储下来，等他长大了让他听，从而知道爸爸妈妈有多爱爱他。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>作为男（女）朋友，我希望所写的关于恋爱的日记中可以插入图片，还可以有精确的时间，以便于可以今后可以清楚的知道记录的场景，内容和时间。</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -179,6 +147,102 @@
   </si>
   <si>
     <t>作为男（女）朋友，我希望我们的相爱会很有仪式感，也希望我们的恋爱充满趣味，以便于我们的感情一天天升温，让我们的恋爱充满新鲜与欣喜。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理亲子关系</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除记录</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计亲子记录</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要日期提醒</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>成长曲线显示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>学业曲线显示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为家长，我希望可以在系统存储多个孩子的相关内容，并且可以自由切换，以便于管理。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为家长，我希望可以在误创建关系或者记录的时候可以有删除的功能，以便于记录更加准确。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为家长，我希望系统可以自动统计创建了关系的孩子数量和信息，以便于对亲子记录有整体的认知。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为家长，我希望可以将孩子的成长情况通过曲线的形式呈现出来，以便于看出孩子在这个成长阶段身高体重的增长趋势是否符合标准的成长趋势。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为家长，我希望可以将孩子的学习成绩以曲线的形式呈现出来，以便于更好地了解孩子的学习情况，以及了解孩子的成绩进步与否。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为家长，我希望可以在添加的重要事件的日期系统可以进行提醒，以便于对孩子更好地教育；作为男（女）朋友，我希望可以在纪念日等重要日期，系统可以自动提醒，以便于为对方准备惊喜。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>云相册存储照片</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为家长，我希望将孩子的照片分类保存，这样可以记录不同场景下孩子的样子，以便于今后和孩子一起回忆经历的各种美好瞬间；作为男（女）朋友，我希望将和对方在一起的所有甜蜜时刻的照片分类保存，这样可以记录不同场景下对方的样子，以便于和对方一起回忆经历的各种美好瞬间。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音记事</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为家长，我希望能够记录孩子或者和孩子有关的语音信息，这样可以实时记录和孩子经历的事件，以便于日后回忆，也可以把相对孩子说的话存储下来，等他长大了让他听，从而知道爸爸妈妈有多爱爱他；作为男（女）朋友，我希望能够记录和对方有关的有关的语音信息，这样可以实时记录和对方发生的小事情，可以是小争吵也可以是小惊喜，也可以把想对对方说的话存储下来，日后给对方听。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲子游玩推荐</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱人游玩推荐</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱人恋爱分享</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲子经验交流</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为家长，我希望可以和别的家长一起交流育儿经验，以便于让自己的孩子更加健康快乐地成长。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为家长，我希望系统可以为家长推荐合适的游玩场所，以便于亲子之间进行更多的互动与交流。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为男（女）朋友，我希望可以找到适合情侣游玩的场所，以便于增进感情，让恋爱更加有意义。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为男（女）朋友，我希望可以和别人分享我恋爱的喜悦，也希望看到别人恋爱的甜蜜瞬间，以便于说出爱，铭记爱。</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -187,9 +251,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="180" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="186" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ #,##0.00"/>
-    <numFmt numFmtId="187" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="176" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ #,##0.00"/>
+    <numFmt numFmtId="178" formatCode="d/mm/yyyy;@"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -435,19 +499,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="4" borderId="8">
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="8">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" applyNumberFormat="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="2" fillId="6" borderId="8" applyNumberFormat="0">
+    <xf numFmtId="178" fontId="2" fillId="6" borderId="8" applyNumberFormat="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -782,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F39" sqref="F38:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -855,7 +919,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="45.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="92" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -869,10 +933,10 @@
         <v>17</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>18</v>
@@ -881,7 +945,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="56" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="112" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -895,10 +959,10 @@
         <v>17</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>18</v>
@@ -924,7 +988,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>18</v>
@@ -950,7 +1014,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>18</v>
@@ -976,7 +1040,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>18</v>
@@ -1002,7 +1066,7 @@
         <v>23</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>18</v>
@@ -1011,7 +1075,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="56" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="42" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1025,10 +1089,10 @@
         <v>17</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>18</v>
@@ -1051,10 +1115,10 @@
         <v>17</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>18</v>
@@ -1077,10 +1141,10 @@
         <v>17</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>18</v>
@@ -1089,7 +1153,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="56" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1102,12 +1166,6 @@
       <c r="D12" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>41</v>
-      </c>
       <c r="G12" s="6" t="s">
         <v>18</v>
       </c>
@@ -1115,7 +1173,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="42" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1127,12 +1185,6 @@
       </c>
       <c r="D13" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>42</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>18</v>
@@ -1181,39 +1233,26 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
-        <v>14</v>
-      </c>
-      <c r="B16" s="6">
-        <v>1</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B17" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="E17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>41</v>
+      </c>
       <c r="G17" s="6" t="s">
         <v>18</v>
       </c>
@@ -1221,10 +1260,35 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>3</v>
+      </c>
+      <c r="B18" s="6">
+        <v>2</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B19" s="6">
         <v>2</v>
@@ -1235,6 +1299,12 @@
       <c r="D19" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="E19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="G19" s="6" t="s">
         <v>18</v>
       </c>
@@ -1242,9 +1312,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="56" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B20" s="6">
         <v>2</v>
@@ -1255,6 +1325,12 @@
       <c r="D20" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="E20" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="G20" s="6" t="s">
         <v>18</v>
       </c>
@@ -1262,9 +1338,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B21" s="6">
         <v>2</v>
@@ -1275,6 +1351,12 @@
       <c r="D21" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="E21" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="G21" s="6" t="s">
         <v>18</v>
       </c>
@@ -1282,9 +1364,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B22" s="6">
         <v>2</v>
@@ -1294,6 +1376,12 @@
       </c>
       <c r="D22" s="6" t="s">
         <v>17</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>18</v>
@@ -1304,7 +1392,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B23" s="6">
         <v>2</v>
@@ -1324,7 +1412,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B24" s="6">
         <v>2</v>
@@ -1344,7 +1432,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B25" s="6">
         <v>2</v>
@@ -1364,7 +1452,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B26" s="6">
         <v>2</v>
@@ -1384,7 +1472,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B27" s="6">
         <v>2</v>
@@ -1404,7 +1492,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B28" s="6">
         <v>2</v>
@@ -1424,7 +1512,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B29" s="6">
         <v>2</v>
@@ -1444,7 +1532,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B30" s="6">
         <v>2</v>
@@ -1462,70 +1550,88 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
-        <v>13</v>
-      </c>
-      <c r="B31" s="6">
-        <v>2</v>
-      </c>
-      <c r="C31" s="6">
-        <v>2</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B32" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="E32" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>56</v>
+      </c>
       <c r="G32" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B33" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="E33" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="G33" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+      <c r="A34" s="6">
+        <v>3</v>
+      </c>
+      <c r="B34" s="6">
+        <v>3</v>
+      </c>
+      <c r="C34" s="6">
+        <v>3</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B35" s="6">
         <v>3</v>
@@ -1536,6 +1642,12 @@
       <c r="D35" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="E35" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="G35" s="6" t="s">
         <v>18</v>
       </c>
@@ -1545,7 +1657,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B36" s="6">
         <v>3</v>
@@ -1560,66 +1672,6 @@
         <v>18</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
-        <v>3</v>
-      </c>
-      <c r="B37" s="6">
-        <v>3</v>
-      </c>
-      <c r="C37" s="6">
-        <v>3</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
-        <v>4</v>
-      </c>
-      <c r="B38" s="6">
-        <v>3</v>
-      </c>
-      <c r="C38" s="6">
-        <v>3</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
-        <v>5</v>
-      </c>
-      <c r="B39" s="6">
-        <v>3</v>
-      </c>
-      <c r="C39" s="6">
-        <v>3</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H39" s="6" t="s">
         <v>20</v>
       </c>
     </row>

--- a/project/scrum/记·得 小组项目/用户故事.xlsx
+++ b/project/scrum/记·得 小组项目/用户故事.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Junior\software\software-engineering\project\scrum\记·得 小组项目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7AEC3A-3E8A-41E7-A3F5-03C82C1B6AF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF9E2B9-E356-4164-A533-2DD4B82A2179}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -848,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F39" sqref="F38:F39"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/project/scrum/记·得 小组项目/用户故事.xlsx
+++ b/project/scrum/记·得 小组项目/用户故事.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Junior\software\software-engineering\project\scrum\记·得 小组项目\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThreeFront\SoftWare\Group\software-engineering\project\scrum\记·得 小组项目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF9E2B9-E356-4164-A533-2DD4B82A2179}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04741E4B-A5A2-4BC9-A807-580C6575B48B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="1050" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -210,10 +210,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>作为家长，我希望能够记录孩子或者和孩子有关的语音信息，这样可以实时记录和孩子经历的事件，以便于日后回忆，也可以把相对孩子说的话存储下来，等他长大了让他听，从而知道爸爸妈妈有多爱爱他；作为男（女）朋友，我希望能够记录和对方有关的有关的语音信息，这样可以实时记录和对方发生的小事情，可以是小争吵也可以是小惊喜，也可以把想对对方说的话存储下来，日后给对方听。</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>亲子游玩推荐</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -243,6 +239,10 @@
   </si>
   <si>
     <t>作为男（女）朋友，我希望可以和别人分享我恋爱的喜悦，也希望看到别人恋爱的甜蜜瞬间，以便于说出爱，铭记爱。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为家长，我希望能够记录孩子或者和孩子有关的语音信息，这样可以实时记录和孩子经历的事件，以便于日后回忆，也可以把相对孩子说的话存储下来，等他长大了让他听，从而知道爸爸妈妈有多爱他；作为男（女）朋友，我希望能够记录和对方有关的有关的语音信息，这样可以实时记录和对方发生的小事情，可以是小争吵也可以是小惊喜，也可以把想对对方说的话存储下来，日后给对方听。</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -848,25 +848,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.08203125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="4.83203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="4.875" style="6" customWidth="1"/>
     <col min="3" max="3" width="4.75" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="6" customWidth="1"/>
     <col min="5" max="5" width="21.75" style="6" customWidth="1"/>
-    <col min="6" max="6" width="42.9140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="42.875" style="6" customWidth="1"/>
     <col min="7" max="7" width="13.75" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="6"/>
+    <col min="8" max="8" width="12.375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="8.625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:17" ht="73" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:17" ht="72.75" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -919,7 +919,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="92" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="92.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -945,7 +945,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="112" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="114" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -962,7 +962,7 @@
         <v>49</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>18</v>
@@ -971,7 +971,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="42" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -997,7 +997,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="56" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="57" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="56" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="57" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="42" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="56" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="57" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="42" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -1233,8 +1233,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>1</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>3</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>4</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="56" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>5</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>6</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>7</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>8</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>9</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>10</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>11</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>12</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>13</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>14</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>15</v>
       </c>
@@ -1550,8 +1550,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
         <v>1</v>
       </c>
@@ -1565,10 +1565,10 @@
         <v>17</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>18</v>
@@ -1577,7 +1577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A33" s="6">
         <v>2</v>
       </c>
@@ -1591,10 +1591,10 @@
         <v>17</v>
       </c>
       <c r="E33" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F33" s="14" t="s">
         <v>54</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>55</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>18</v>
@@ -1603,7 +1603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>3</v>
       </c>
@@ -1617,10 +1617,10 @@
         <v>17</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>18</v>
@@ -1629,7 +1629,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>4</v>
       </c>
@@ -1643,10 +1643,10 @@
         <v>17</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>18</v>
@@ -1655,7 +1655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="6">
         <v>5</v>
       </c>

--- a/project/scrum/记·得 小组项目/用户故事.xlsx
+++ b/project/scrum/记·得 小组项目/用户故事.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThreeFront\SoftWare\Group\software-engineering\project\scrum\记·得 小组项目\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fight_blink\Software engineering\group\software-engineering\project\scrum\记·得 小组项目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04741E4B-A5A2-4BC9-A807-580C6575B48B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="1050" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="696" yWindow="1056" windowWidth="15372" windowHeight="7872"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
   <si>
     <t>引用编号</t>
   </si>
@@ -249,7 +248,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ #,##0.00"/>
@@ -313,7 +312,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,12 +349,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -513,7 +506,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -527,9 +520,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -559,16 +549,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Background" xfId="2" xr:uid="{FEA5F6D1-9B23-456E-B44D-095836109663}"/>
-    <cellStyle name="DateCells" xfId="3" xr:uid="{E76DF461-F36E-49CB-819F-2F3762FEAC8A}"/>
-    <cellStyle name="DayNames" xfId="4" xr:uid="{55BC617E-8974-44AF-B682-C5FC7B2D8231}"/>
-    <cellStyle name="MonthHeader" xfId="5" xr:uid="{B71EADB1-D6BA-49C5-967D-EDF4A15A79F6}"/>
-    <cellStyle name="Normal 2" xfId="6" xr:uid="{E2D16828-303A-4345-9F73-8143E3D1538B}"/>
-    <cellStyle name="Normal 3" xfId="7" xr:uid="{ECEBE2B7-F08F-4331-8BF4-DFB5FCAD461B}"/>
-    <cellStyle name="百分比 2" xfId="8" xr:uid="{533B6033-E2BD-49EA-861D-76663696A93E}"/>
+    <cellStyle name="Background" xfId="2"/>
+    <cellStyle name="DateCells" xfId="3"/>
+    <cellStyle name="DayNames" xfId="4"/>
+    <cellStyle name="MonthHeader" xfId="5"/>
+    <cellStyle name="Normal 2" xfId="6"/>
+    <cellStyle name="Normal 3" xfId="7"/>
+    <cellStyle name="百分比 2" xfId="8"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{8750DA97-3C00-4872-A743-EC1BADBD0ADA}"/>
-    <cellStyle name="货币 2" xfId="9" xr:uid="{88ADD075-6C73-426E-B06F-78A5C4D98E98}"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币 2" xfId="9"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -845,35 +835,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="4.875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="4.75" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="21.75" style="6" customWidth="1"/>
-    <col min="6" max="6" width="42.875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="8.625" style="6"/>
+    <col min="1" max="1" width="5.109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="4.77734375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="42.88671875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:17" ht="72.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+    <row r="1" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:17" ht="74.400000000000006" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -891,788 +881,697 @@
       <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="8" t="s">
         <v>15</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="92.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="6" t="s">
+    <row r="3" spans="1:17" ht="92.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="114" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="I3" s="5">
+        <v>8</v>
+      </c>
+      <c r="J3" s="5">
+        <v>97</v>
+      </c>
+      <c r="M3" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="I4" s="5">
+        <v>7</v>
+      </c>
+      <c r="J4" s="5">
+        <v>95</v>
+      </c>
+      <c r="M4" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="G5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="I5" s="5">
+        <v>8</v>
+      </c>
+      <c r="J5" s="5">
+        <v>96</v>
+      </c>
+      <c r="M5" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="57" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="I6" s="5">
+        <v>7</v>
+      </c>
+      <c r="J6" s="5">
+        <v>94</v>
+      </c>
+      <c r="M6" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="G7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="57" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="I7" s="5">
+        <v>10</v>
+      </c>
+      <c r="J7" s="5">
+        <v>93</v>
+      </c>
+      <c r="M7" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="G8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="I8" s="5">
+        <v>10</v>
+      </c>
+      <c r="J8" s="5">
+        <v>92</v>
+      </c>
+      <c r="M8" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="6" t="s">
+      <c r="G9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="57" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="I9" s="5">
+        <v>7</v>
+      </c>
+      <c r="J9" s="5">
+        <v>89</v>
+      </c>
+      <c r="M9" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="G10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="I10" s="5">
+        <v>10</v>
+      </c>
+      <c r="J10" s="5">
+        <v>85</v>
+      </c>
+      <c r="M10" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="6">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="G11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="I11" s="5">
+        <v>12</v>
+      </c>
+      <c r="J11" s="5">
+        <v>84</v>
+      </c>
+      <c r="M11" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="6">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="6" t="s">
+    </row>
+    <row r="12" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="6" t="s">
+      <c r="I12" s="5">
+        <v>5</v>
+      </c>
+      <c r="J12" s="5">
+        <v>80</v>
+      </c>
+      <c r="M12" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6">
-        <v>1</v>
-      </c>
-      <c r="C14" s="6">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="6" t="s">
+      <c r="I13" s="5">
+        <v>3</v>
+      </c>
+      <c r="J13" s="5">
+        <v>80</v>
+      </c>
+      <c r="M13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>4</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="6" t="s">
+      <c r="I14" s="5">
+        <v>5</v>
+      </c>
+      <c r="J14" s="5">
+        <v>79</v>
+      </c>
+      <c r="M14" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>5</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <v>1</v>
-      </c>
-      <c r="B17" s="6">
+      <c r="I15" s="5">
+        <v>8</v>
+      </c>
+      <c r="J15" s="5">
+        <v>75</v>
+      </c>
+      <c r="M15" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5">
         <v>2</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C16" s="5">
         <v>2</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="6" t="s">
+      <c r="D16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="I16" s="5">
+        <v>8</v>
+      </c>
+      <c r="J16" s="5">
+        <v>82</v>
+      </c>
+      <c r="M16" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>7</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="5">
+        <v>8</v>
+      </c>
+      <c r="J17" s="5">
+        <v>83</v>
+      </c>
+      <c r="M17" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5">
         <v>3</v>
       </c>
-      <c r="B18" s="6">
+      <c r="C18" s="5">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="5">
+        <v>10</v>
+      </c>
+      <c r="J18" s="5">
+        <v>72</v>
+      </c>
+      <c r="M18" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>2</v>
       </c>
-      <c r="C18" s="6">
-        <v>2</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="B19" s="5">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="5">
+        <v>10</v>
+      </c>
+      <c r="J19" s="5">
+        <v>71</v>
+      </c>
+      <c r="M19" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5">
+        <v>3</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="5">
+        <v>10</v>
+      </c>
+      <c r="J20" s="5">
+        <v>70</v>
+      </c>
+      <c r="M20" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>4</v>
       </c>
-      <c r="B19" s="6">
-        <v>2</v>
-      </c>
-      <c r="C19" s="6">
-        <v>2</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
-        <v>5</v>
-      </c>
-      <c r="B20" s="6">
-        <v>2</v>
-      </c>
-      <c r="C20" s="6">
-        <v>2</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="B21" s="5">
+        <v>3</v>
+      </c>
+      <c r="C21" s="5">
+        <v>3</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="5">
+        <v>10</v>
+      </c>
+      <c r="J21" s="5">
+        <v>70</v>
+      </c>
+      <c r="M21" s="5">
         <v>6</v>
-      </c>
-      <c r="B21" s="6">
-        <v>2</v>
-      </c>
-      <c r="C21" s="6">
-        <v>2</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
-        <v>7</v>
-      </c>
-      <c r="B22" s="6">
-        <v>2</v>
-      </c>
-      <c r="C22" s="6">
-        <v>2</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6">
-        <v>2</v>
-      </c>
-      <c r="C23" s="6">
-        <v>2</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
-        <v>9</v>
-      </c>
-      <c r="B24" s="6">
-        <v>2</v>
-      </c>
-      <c r="C24" s="6">
-        <v>2</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
-        <v>10</v>
-      </c>
-      <c r="B25" s="6">
-        <v>2</v>
-      </c>
-      <c r="C25" s="6">
-        <v>2</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
-        <v>11</v>
-      </c>
-      <c r="B26" s="6">
-        <v>2</v>
-      </c>
-      <c r="C26" s="6">
-        <v>2</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
-        <v>12</v>
-      </c>
-      <c r="B27" s="6">
-        <v>2</v>
-      </c>
-      <c r="C27" s="6">
-        <v>2</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
-        <v>13</v>
-      </c>
-      <c r="B28" s="6">
-        <v>2</v>
-      </c>
-      <c r="C28" s="6">
-        <v>2</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
-        <v>14</v>
-      </c>
-      <c r="B29" s="6">
-        <v>2</v>
-      </c>
-      <c r="C29" s="6">
-        <v>2</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
-        <v>15</v>
-      </c>
-      <c r="B30" s="6">
-        <v>2</v>
-      </c>
-      <c r="C30" s="6">
-        <v>2</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
-        <v>1</v>
-      </c>
-      <c r="B32" s="6">
-        <v>3</v>
-      </c>
-      <c r="C32" s="6">
-        <v>3</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
-        <v>2</v>
-      </c>
-      <c r="B33" s="6">
-        <v>3</v>
-      </c>
-      <c r="C33" s="6">
-        <v>3</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
-        <v>3</v>
-      </c>
-      <c r="B34" s="6">
-        <v>3</v>
-      </c>
-      <c r="C34" s="6">
-        <v>3</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
-        <v>4</v>
-      </c>
-      <c r="B35" s="6">
-        <v>3</v>
-      </c>
-      <c r="C35" s="6">
-        <v>3</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
-        <v>5</v>
-      </c>
-      <c r="B36" s="6">
-        <v>3</v>
-      </c>
-      <c r="C36" s="6">
-        <v>3</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/project/scrum/记·得 小组项目/用户故事.xlsx
+++ b/project/scrum/记·得 小组项目/用户故事.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThreeFront\SoftWare\Group\software-engineering\project\scrum\记·得 小组项目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04741E4B-A5A2-4BC9-A807-580C6575B48B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DA0CA4-58B9-4898-9F06-C83C38495C5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="1050" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="1395" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -848,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="E11" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/project/scrum/记·得 小组项目/用户故事.xlsx
+++ b/project/scrum/记·得 小组项目/用户故事.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThreeFront\SoftWare\Group\software-engineering\project\scrum\记·得 小组项目\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fight_blink\Software engineering\group\software-engineering\project\scrum\记·得 小组项目\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DA0CA4-58B9-4898-9F06-C83C38495C5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="1395" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="696" yWindow="1056" windowWidth="15372" windowHeight="7872"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
   <si>
     <t>引用编号</t>
   </si>
@@ -249,7 +248,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ #,##0.00"/>
@@ -313,7 +312,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,12 +349,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -513,7 +506,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -527,9 +520,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -559,16 +549,16 @@
     </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Background" xfId="2" xr:uid="{FEA5F6D1-9B23-456E-B44D-095836109663}"/>
-    <cellStyle name="DateCells" xfId="3" xr:uid="{E76DF461-F36E-49CB-819F-2F3762FEAC8A}"/>
-    <cellStyle name="DayNames" xfId="4" xr:uid="{55BC617E-8974-44AF-B682-C5FC7B2D8231}"/>
-    <cellStyle name="MonthHeader" xfId="5" xr:uid="{B71EADB1-D6BA-49C5-967D-EDF4A15A79F6}"/>
-    <cellStyle name="Normal 2" xfId="6" xr:uid="{E2D16828-303A-4345-9F73-8143E3D1538B}"/>
-    <cellStyle name="Normal 3" xfId="7" xr:uid="{ECEBE2B7-F08F-4331-8BF4-DFB5FCAD461B}"/>
-    <cellStyle name="百分比 2" xfId="8" xr:uid="{533B6033-E2BD-49EA-861D-76663696A93E}"/>
+    <cellStyle name="Background" xfId="2"/>
+    <cellStyle name="DateCells" xfId="3"/>
+    <cellStyle name="DayNames" xfId="4"/>
+    <cellStyle name="MonthHeader" xfId="5"/>
+    <cellStyle name="Normal 2" xfId="6"/>
+    <cellStyle name="Normal 3" xfId="7"/>
+    <cellStyle name="百分比 2" xfId="8"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{8750DA97-3C00-4872-A743-EC1BADBD0ADA}"/>
-    <cellStyle name="货币 2" xfId="9" xr:uid="{88ADD075-6C73-426E-B06F-78A5C4D98E98}"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币 2" xfId="9"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -845,35 +835,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E11" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="4.875" style="6" customWidth="1"/>
-    <col min="3" max="3" width="4.75" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="6" customWidth="1"/>
-    <col min="5" max="5" width="21.75" style="6" customWidth="1"/>
-    <col min="6" max="6" width="42.875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="8.625" style="6"/>
+    <col min="1" max="1" width="5.109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="4.77734375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="42.88671875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:17" ht="72.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+    <row r="1" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:17" ht="74.400000000000006" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -891,788 +881,697 @@
       <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="8" t="s">
         <v>15</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="92.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="6" t="s">
+    <row r="3" spans="1:17" ht="92.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="114" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="I3" s="5">
+        <v>8</v>
+      </c>
+      <c r="J3" s="5">
+        <v>97</v>
+      </c>
+      <c r="M3" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="6" t="s">
+      <c r="G4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="I4" s="5">
+        <v>7</v>
+      </c>
+      <c r="J4" s="5">
+        <v>95</v>
+      </c>
+      <c r="M4" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="6" t="s">
+      <c r="G5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="I5" s="5">
+        <v>8</v>
+      </c>
+      <c r="J5" s="5">
+        <v>96</v>
+      </c>
+      <c r="M5" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="57" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="I6" s="5">
+        <v>7</v>
+      </c>
+      <c r="J6" s="5">
+        <v>94</v>
+      </c>
+      <c r="M6" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="G7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="57" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="I7" s="5">
+        <v>10</v>
+      </c>
+      <c r="J7" s="5">
+        <v>93</v>
+      </c>
+      <c r="M7" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="6" t="s">
+      <c r="G8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="I8" s="5">
+        <v>10</v>
+      </c>
+      <c r="J8" s="5">
+        <v>92</v>
+      </c>
+      <c r="M8" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="6" t="s">
+      <c r="G9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="57" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="I9" s="5">
+        <v>7</v>
+      </c>
+      <c r="J9" s="5">
+        <v>89</v>
+      </c>
+      <c r="M9" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="6">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="6" t="s">
+      <c r="G10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="I10" s="5">
+        <v>10</v>
+      </c>
+      <c r="J10" s="5">
+        <v>85</v>
+      </c>
+      <c r="M10" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="6">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="G11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="I11" s="5">
+        <v>12</v>
+      </c>
+      <c r="J11" s="5">
+        <v>84</v>
+      </c>
+      <c r="M11" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="6">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="6" t="s">
+    </row>
+    <row r="12" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="6" t="s">
+      <c r="I12" s="5">
+        <v>5</v>
+      </c>
+      <c r="J12" s="5">
+        <v>80</v>
+      </c>
+      <c r="M12" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>3</v>
+      </c>
+      <c r="B13" s="5">
+        <v>2</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6">
-        <v>1</v>
-      </c>
-      <c r="C14" s="6">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="6" t="s">
+      <c r="I13" s="5">
+        <v>3</v>
+      </c>
+      <c r="J13" s="5">
+        <v>80</v>
+      </c>
+      <c r="M13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>4</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="6" t="s">
+      <c r="I14" s="5">
+        <v>5</v>
+      </c>
+      <c r="J14" s="5">
+        <v>79</v>
+      </c>
+      <c r="M14" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="69" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>5</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
-        <v>1</v>
-      </c>
-      <c r="B17" s="6">
+      <c r="I15" s="5">
+        <v>8</v>
+      </c>
+      <c r="J15" s="5">
+        <v>75</v>
+      </c>
+      <c r="M15" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5">
         <v>2</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C16" s="5">
         <v>2</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="6" t="s">
+      <c r="D16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="I16" s="5">
+        <v>8</v>
+      </c>
+      <c r="J16" s="5">
+        <v>82</v>
+      </c>
+      <c r="M16" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>7</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="5">
+        <v>8</v>
+      </c>
+      <c r="J17" s="5">
+        <v>83</v>
+      </c>
+      <c r="M17" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5">
         <v>3</v>
       </c>
-      <c r="B18" s="6">
+      <c r="C18" s="5">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="5">
+        <v>10</v>
+      </c>
+      <c r="J18" s="5">
+        <v>72</v>
+      </c>
+      <c r="M18" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>2</v>
       </c>
-      <c r="C18" s="6">
-        <v>2</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="B19" s="5">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="5">
+        <v>10</v>
+      </c>
+      <c r="J19" s="5">
+        <v>71</v>
+      </c>
+      <c r="M19" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5">
+        <v>3</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="5">
+        <v>10</v>
+      </c>
+      <c r="J20" s="5">
+        <v>70</v>
+      </c>
+      <c r="M20" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>4</v>
       </c>
-      <c r="B19" s="6">
-        <v>2</v>
-      </c>
-      <c r="C19" s="6">
-        <v>2</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
-        <v>5</v>
-      </c>
-      <c r="B20" s="6">
-        <v>2</v>
-      </c>
-      <c r="C20" s="6">
-        <v>2</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="B21" s="5">
+        <v>3</v>
+      </c>
+      <c r="C21" s="5">
+        <v>3</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="5">
+        <v>10</v>
+      </c>
+      <c r="J21" s="5">
+        <v>70</v>
+      </c>
+      <c r="M21" s="5">
         <v>6</v>
-      </c>
-      <c r="B21" s="6">
-        <v>2</v>
-      </c>
-      <c r="C21" s="6">
-        <v>2</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
-        <v>7</v>
-      </c>
-      <c r="B22" s="6">
-        <v>2</v>
-      </c>
-      <c r="C22" s="6">
-        <v>2</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
-        <v>8</v>
-      </c>
-      <c r="B23" s="6">
-        <v>2</v>
-      </c>
-      <c r="C23" s="6">
-        <v>2</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
-        <v>9</v>
-      </c>
-      <c r="B24" s="6">
-        <v>2</v>
-      </c>
-      <c r="C24" s="6">
-        <v>2</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
-        <v>10</v>
-      </c>
-      <c r="B25" s="6">
-        <v>2</v>
-      </c>
-      <c r="C25" s="6">
-        <v>2</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
-        <v>11</v>
-      </c>
-      <c r="B26" s="6">
-        <v>2</v>
-      </c>
-      <c r="C26" s="6">
-        <v>2</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
-        <v>12</v>
-      </c>
-      <c r="B27" s="6">
-        <v>2</v>
-      </c>
-      <c r="C27" s="6">
-        <v>2</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
-        <v>13</v>
-      </c>
-      <c r="B28" s="6">
-        <v>2</v>
-      </c>
-      <c r="C28" s="6">
-        <v>2</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
-        <v>14</v>
-      </c>
-      <c r="B29" s="6">
-        <v>2</v>
-      </c>
-      <c r="C29" s="6">
-        <v>2</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
-        <v>15</v>
-      </c>
-      <c r="B30" s="6">
-        <v>2</v>
-      </c>
-      <c r="C30" s="6">
-        <v>2</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
-        <v>1</v>
-      </c>
-      <c r="B32" s="6">
-        <v>3</v>
-      </c>
-      <c r="C32" s="6">
-        <v>3</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
-        <v>2</v>
-      </c>
-      <c r="B33" s="6">
-        <v>3</v>
-      </c>
-      <c r="C33" s="6">
-        <v>3</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
-        <v>3</v>
-      </c>
-      <c r="B34" s="6">
-        <v>3</v>
-      </c>
-      <c r="C34" s="6">
-        <v>3</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
-        <v>4</v>
-      </c>
-      <c r="B35" s="6">
-        <v>3</v>
-      </c>
-      <c r="C35" s="6">
-        <v>3</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
-        <v>5</v>
-      </c>
-      <c r="B36" s="6">
-        <v>3</v>
-      </c>
-      <c r="C36" s="6">
-        <v>3</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/project/scrum/记·得 小组项目/用户故事.xlsx
+++ b/project/scrum/记·得 小组项目/用户故事.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\fight_blink\Software engineering\group\software-engineering\project\scrum\记·得 小组项目\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Junior\software\software-engineering\project\scrum\记·得 小组项目\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533D6BA1-03B9-4502-B06A-BE77931EBB3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="1056" windowWidth="15372" windowHeight="7872"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -248,7 +249,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ #,##0.00"/>
@@ -312,7 +313,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,6 +350,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -506,7 +513,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -547,18 +554,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Background" xfId="2"/>
-    <cellStyle name="DateCells" xfId="3"/>
-    <cellStyle name="DayNames" xfId="4"/>
-    <cellStyle name="MonthHeader" xfId="5"/>
-    <cellStyle name="Normal 2" xfId="6"/>
-    <cellStyle name="Normal 3" xfId="7"/>
-    <cellStyle name="百分比 2" xfId="8"/>
+    <cellStyle name="Background" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="DateCells" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="DayNames" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="MonthHeader" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="百分比 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="货币 2" xfId="9"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="货币 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -835,28 +848,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="4.77734375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="42.88671875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="5.08203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="4.9140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="4.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.9140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="21.75" style="5" customWidth="1"/>
+    <col min="6" max="6" width="42.9140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="5" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" style="5" customWidth="1"/>
     <col min="9" max="16384" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:17" ht="74.400000000000006" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="14.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:17" ht="73" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
@@ -909,7 +922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="92.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="92.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -944,7 +957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="124.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="112" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -979,7 +992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="42" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -1014,7 +1027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="42" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -1049,7 +1062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="56" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -1084,7 +1097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="56" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -1119,7 +1132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="42" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>7</v>
       </c>
@@ -1154,7 +1167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="56" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>8</v>
       </c>
@@ -1189,7 +1202,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="42" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1224,44 +1237,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>1</v>
-      </c>
-      <c r="B12" s="5">
-        <v>2</v>
-      </c>
-      <c r="C12" s="5">
-        <v>2</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="5">
-        <v>5</v>
-      </c>
-      <c r="J12" s="5">
-        <v>80</v>
-      </c>
-      <c r="M12" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:17" ht="28" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" s="5">
         <v>2</v>
@@ -1273,10 +1254,10 @@
         <v>17</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>18</v>
@@ -1285,18 +1266,18 @@
         <v>19</v>
       </c>
       <c r="I13" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J13" s="5">
         <v>80</v>
       </c>
       <c r="M13" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="28" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
         <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>4</v>
       </c>
       <c r="B14" s="5">
         <v>2</v>
@@ -1308,10 +1289,10 @@
         <v>17</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>18</v>
@@ -1320,18 +1301,18 @@
         <v>19</v>
       </c>
       <c r="I14" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J14" s="5">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M14" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="28" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
         <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="69" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>5</v>
       </c>
       <c r="B15" s="5">
         <v>2</v>
@@ -1343,10 +1324,10 @@
         <v>17</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>18</v>
@@ -1355,18 +1336,18 @@
         <v>19</v>
       </c>
       <c r="I15" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J15" s="5">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M15" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="55.2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="56" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16" s="5">
         <v>2</v>
@@ -1378,10 +1359,10 @@
         <v>17</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>18</v>
@@ -1393,15 +1374,15 @@
         <v>8</v>
       </c>
       <c r="J16" s="5">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="M16" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="42" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B17" s="5">
         <v>2</v>
@@ -1413,10 +1394,10 @@
         <v>17</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>18</v>
@@ -1428,85 +1409,53 @@
         <v>8</v>
       </c>
       <c r="J17" s="5">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M17" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="42" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B18" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I18" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J18" s="5">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="M18" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>2</v>
-      </c>
-      <c r="B19" s="5">
-        <v>3</v>
-      </c>
-      <c r="C19" s="5">
-        <v>3</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="5">
-        <v>10</v>
-      </c>
-      <c r="J19" s="5">
-        <v>71</v>
-      </c>
-      <c r="M19" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" s="5">
         <v>3</v>
@@ -1518,10 +1467,10 @@
         <v>17</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>18</v>
@@ -1533,15 +1482,15 @@
         <v>10</v>
       </c>
       <c r="J20" s="5">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M20" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="28" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" s="5">
         <v>3</v>
@@ -1553,10 +1502,10 @@
         <v>17</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>18</v>
@@ -1568,9 +1517,79 @@
         <v>10</v>
       </c>
       <c r="J21" s="5">
+        <v>71</v>
+      </c>
+      <c r="M21" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="28" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>3</v>
+      </c>
+      <c r="B22" s="5">
+        <v>3</v>
+      </c>
+      <c r="C22" s="5">
+        <v>3</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="5">
+        <v>10</v>
+      </c>
+      <c r="J22" s="5">
         <v>70</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M22" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="42" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>4</v>
+      </c>
+      <c r="B23" s="5">
+        <v>3</v>
+      </c>
+      <c r="C23" s="5">
+        <v>3</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="5">
+        <v>10</v>
+      </c>
+      <c r="J23" s="5">
+        <v>70</v>
+      </c>
+      <c r="M23" s="5">
         <v>6</v>
       </c>
     </row>
